--- a/medicine/Pharmacie/Classe_ATC_N07/Classe_ATC_N07.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_N07/Classe_ATC_N07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC N07, dénommée « Autres médicaments en relation avec le système nerveux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN07[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC N07, dénommée « Autres médicaments en relation avec le système nerveux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN07. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
 </t>
         </is>
       </c>
@@ -513,19 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N07AA Anticholinestérases
-N07AA01 Néostigmine
+          <t>N07AA Anticholinestérases</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N07AA01 Néostigmine
 N07AA02 Pyridostigmine
 N07AA03 Distigmine
 N07AA30 Ambénonium
-N07AA51 Néostigmine, associations
-N07AB Esters de la choline
-N07AB01 Carbachol
-N07AB02 Béthanéchol
-N07AX Autres parasympathicomimétiques
-N07AX01 Pilocarpine
-N07AX02 Alfoscérate de choline
-N07AX03 Céviméline</t>
+N07AA51 Néostigmine, associations</t>
         </is>
       </c>
     </row>
@@ -550,23 +560,171 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>N07A Parasympathicomimétiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N07AB Esters de la choline</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N07AB01 Carbachol
+N07AB02 Béthanéchol</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N07A Parasympathicomimétiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N07AX Autres parasympathicomimétiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N07AX01 Pilocarpine
+N07AX02 Alfoscérate de choline
+N07AX03 Céviméline</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>N07B Médicaments utilisés dans des troubles d'addiction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N07BA Médicaments utilisés en cas de dépendance à la nicotine
-N07BA01 Nicotine
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N07BA Médicaments utilisés en cas de dépendance à la nicotine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N07BA01 Nicotine
 N07BA03 Varénicline
-N07BA04 Cytisine
-N07BB Médicaments utilisés en cas de dépendance à l'alcool
-N07BB01 Disulfirame
+N07BA04 Cytisine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N07B Médicaments utilisés dans des troubles d'addiction</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N07BB Médicaments utilisés en cas de dépendance à l'alcool</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N07BB01 Disulfirame
 N07BB02 Calcium carbimide
 N07BB03 Acamprosate
 N07BB04 Naltrexone
-N07BB05 Nalméfène
-N07BC Médicaments utilisés en cas de dépendance aux opiacés
-N07BC01 Buprénorphine
+N07BB05 Nalméfène</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N07B Médicaments utilisés dans des troubles d'addiction</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N07BC Médicaments utilisés en cas de dépendance aux opiacés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N07BC01 Buprénorphine
 N07BC02 Méthadone
 N07BC03 Lévacétylméthadol
 N07BC04 Lofexidine
@@ -576,34 +734,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_N07</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>N07C Préparations antivertige</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N07CA Préparations antivertige
-N07CA01 Bétahistine
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N07CA Préparations antivertige</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N07CA01 Bétahistine
 N07CA02 Cinnarizine
 N07CA03 Flunarizine
 N07CA04 Acétylleucine
@@ -611,36 +774,76 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_N07</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>N07X Autres médicaments du système nerveux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N07XA Gangliosides et dérivés des gangliosides
-Vide.
-N07XX Autres médicaments du système nerveux
-N07XX01 Tirilazad
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N07XA Gangliosides et dérivés des gangliosides</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N07X Autres médicaments du système nerveux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N07XX Autres médicaments du système nerveux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N07XX01 Tirilazad
 N07XX02 Riluzole
 N07XX03 Xaliproden
 N07XX04 Acide hydroxybutyrique
